--- a/medicine/Enfance/Les_Cordes_de_cristal/Les_Cordes_de_cristal.xlsx
+++ b/medicine/Enfance/Les_Cordes_de_cristal/Les_Cordes_de_cristal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Cordes de cristal est une série littéraire d'Anne Robillard, dont le premier tome est sorti en 2012.
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'histoire se partage en dix épisodes[1] et elle se situe entre Palm Springs et Los Angeles, en Californie dans une petite ville nommée Kennenika, mais qui a eu une grande importance dans les années 1980 dans le monde du rock.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire se partage en dix épisodes et elle se situe entre Palm Springs et Los Angeles, en Californie dans une petite ville nommée Kennenika, mais qui a eu une grande importance dans les années 1980 dans le monde du rock.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Tomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Épisode 1, Wellan Inc., 2012, 172 p.  (ISBN 978-2-92392-516-5)Réédité avec le deuxième épisode sous le titre Épisodes 1 &amp; 2 aux éditions Michel Lafon en 2014, 361 p.  (ISBN 978-2-7499-2161-7)
 Épisode 2, Wellan Inc., 2012, 180 p.  (ISBN 978-2-92392-556-1)Réédité avec le premier épisode sous le titre Épisodes 1 &amp; 2 aux éditions Michel Lafon en 2014, 361 p.  (ISBN 978-2-7499-2161-7)
